--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -575,7 +575,7 @@
         <v>45844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45844</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45844</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45834.33671296296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45844</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45082</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>44813.65914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44285.52417824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44722</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44788.85543981481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45117.91172453704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44902</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>45799.29619212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>45177</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45909.62664351852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45925.69354166667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45033.43498842593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>45867.61590277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45364</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44910</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>45649.36887731482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>44497.61828703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44431.49028935185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>44586.45890046296</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44438.39974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44459.56425925926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44271</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44437.29136574074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44421</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44320</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44246</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44579</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44523.68085648148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44472.47611111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44557.46989583333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44693.35873842592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44461.64192129629</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44845.31287037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44869</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44830.60042824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>44603.3659837963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44523.51407407408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44827.40586805555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44522.61667824074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44285.51721064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44687</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44650</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44694</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44813.63295138889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44746.57324074074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44420.60756944444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44572</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44813.64327546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>44813.66496527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44529.45037037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44246</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44249</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44335</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44369.43969907407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44357</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44263.35788194444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44764</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44309</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44425.76280092593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44461.65069444444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44376</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44762.58835648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44478</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44510.52255787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44390</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44575.37262731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44468</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44595.65876157407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44354</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44516</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44505.72509259259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44459.55395833333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44459.47292824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44487</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44252</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44806.48979166667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44731.45185185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44610</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44557.55960648148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44437.28954861111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44843</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44609</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44700.57378472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44469.84310185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44321</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44383</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44662</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44830.47840277778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44830.4819212963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44448.61173611111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44802.48579861111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44463</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44831.56995370371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44823.62825231482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44553</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44665.48672453704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>44614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44788.83469907408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44247</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44246</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44805.71230324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44355.65476851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44434</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>44623.393125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>44349.71498842593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44384.66334490741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44788.82988425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44834</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44721.57989583333</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44610</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44469.78644675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44573.49446759259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44573</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>45749.39572916667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>45453</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>45453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45632.64607638889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45447.91608796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45369.58465277778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45607.54608796296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44965</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45078</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44881.67839120371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>44900.48835648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45063.80594907407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>45196.85282407407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44895.66276620371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44994.6522337963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44424</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45217</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>45259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>45709.52055555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45035</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45037.59636574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45666.74427083333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45268.41516203704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45015</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44740.6428125</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44790</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>45019</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45643.50313657407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45573.97304398148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45652.49542824074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45231.09202546296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45231.09993055555</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45097</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45353.85016203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45506.58966435185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45728.48403935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44904.56056712963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44904.57929398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45688</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45605.56743055556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45605.57515046297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45211</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44594.57376157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44585.56990740741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45646</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>45733</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45733</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>45799.51834490741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>45884.65219907407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45555.433125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45356.69465277778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45209.40101851852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44662</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45714</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45631.29098379629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45362.83706018519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44904.58114583333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45471.3683912037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45553</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45722</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45708.44108796296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>45055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>45884.76268518518</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44424</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45587.6075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45733</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45805.55434027778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>45884.65519675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44921.5437037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45568.50387731481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45539.27186342593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45548.41568287037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45683.73450231482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44585.40355324074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44903.36738425926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>45685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44832</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44481.81486111111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>45898.61960648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>45819.29016203704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>45635.71762731481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>45902</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45609.45424768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>45905.60903935185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>45110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>45905.60511574074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>45905</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>45905.6021412037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>45062</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44585.57111111111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44312.8218287037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45905</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45905.3710300926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45471.39585648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>45908.53063657408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45665.61358796297</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44826</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>45909.59811342593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>45537.49109953704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>45909.59134259259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>45909.59454861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>45908.5246412037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44742.46596064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45911.626875</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>45911.62393518518</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45911.62892361111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>45911.61909722222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44602</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>45243.47027777778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>45912.62307870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>45093.48739583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>45915.33224537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>45915.33744212963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>45912.84423611111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45082.54413194444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44580</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45912.84896990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45036</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45915.32856481482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45709.33300925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44801</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>45463</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45730.43767361111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45240.62390046296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45483.77171296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>45917.3375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>44749.86331018519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45918.63648148148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44916.88560185185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45468</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45919.31988425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45919.32181712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45919.58362268518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>45768.72400462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>45015.65375</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>45919.59320601852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45404.3621875</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44867.57969907407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44663.88828703704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45833.42586805556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45833.42826388889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45665.6306712963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>45833.43040509259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>45833.42054398148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>45656.54815972222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>45273.96774305555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>45833.38796296297</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>45832.34307870371</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>45666.65141203703</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45033.43649305555</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>45037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44743</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>45575.67569444444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45834.36524305555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>45834.58601851852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>45107</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>45834.34890046297</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45524.65349537037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45524</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45930.56465277778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44529.54512731481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45834.56790509259</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45834.34193287037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45835.32391203703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44832</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44783</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44935.94474537037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>45162.48063657407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45838.47916666666</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45838.48385416667</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44511</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45707.41185185185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44757</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45826.96917824074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44951.85590277778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45369.44048611111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45936.98362268518</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45937.31203703704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>45937.32253472223</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>45937.34452546296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44235</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45939.40376157407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45937.34450231482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45844</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45939.67415509259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45175.55418981481</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45845.40922453703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>45642.45993055555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45845.38695601852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45844</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>45105</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45844</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45844</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>45390.31269675926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>45100</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>45141</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44644.29711805555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>45844</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45845.39140046296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45749</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45436</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45695.56311342592</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45632.44180555556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45844</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45534.48851851852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45534.49101851852</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45950.395</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44845</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45744.60167824074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45769</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45677.8484375</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44711.62016203703</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44524.65744212963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44524.66100694444</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45867.6165625</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45715</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44477</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44776</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45282.61424768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44790</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45589.65177083333</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45589.65980324074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45686.33894675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44904.57733796296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45011.82695601852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45964.598125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45414.36306712963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45964.90686342592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45506.58487268518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45091.50614583334</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45967.33494212963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45688</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45742.69731481482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44902.62528935185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>45434.52386574074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45648.67697916667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>45973.32554398148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45971</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44838</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>45589.6418287037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>45975.67711805556</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45197.57471064815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45610</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45978.66430555555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>45737.41474537037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>46018.80475694445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45012</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45982.58918981482</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44658.5822800926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>44788</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>46020.64361111111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45369.44337962963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45436.43732638889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>46020.64207175926</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45986.41480324074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45733</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>46029.45943287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45986.42945601852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>46029.61142361111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45988.64585648148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45685.55271990741</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45237.79225694444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45360</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45148.56811342593</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44620</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>46030.48</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45742.7065162037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>46034.49106481481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44557</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45404.5447337963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45154.89658564814</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44911.6057175926</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>45208.30586805556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45520</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45436</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45706.79318287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>46037.64255787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45630</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45995.33380787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45996</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45588.65604166667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44610</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45443.29864583333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>45036</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>45503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>45999.7060300926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45448</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>45427.64453703703</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>45427.64561342593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26503,7 +26503,7 @@
         <v>45714.45700231481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>45588.7440625</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44997</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>45259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>45119.4128587963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45208.47866898148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45377</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>46002.7006712963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>46007.71778935185</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>45239.34430555555</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>45321.87001157407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>45646.44403935185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44994.64373842593</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>45371.46622685185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>45231.74186342592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44965</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45264</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45364.38001157407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45197.56679398148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45197.57119212963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45096</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>45540.5496875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45162.47829861111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44895.65883101852</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45446.41148148148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>44271.64799768518</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>44910</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45961</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44951.85414351852</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44873.38465277778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44945.01668981482</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>45063</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44557.46721064814</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45436.43516203704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>45635.71258101852</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45079.60946759259</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45002</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45097</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44997</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45301.94692129629</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45078.39329861111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>44921.55061342593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45110.63390046296</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45078.38459490741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44802</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45733</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45390.31023148148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44505</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>45744.60379629629</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>45524</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>45147.68502314815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44455</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45216.62342592593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44522.61341435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45195.69958333333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>45195.71341435185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45375.84645833333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45572.47167824074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>45154</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>45709.53076388889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>45390.31549768519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>45588.65626157408</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>45588.74049768518</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>45117.55719907407</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45573.97584490741</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45016</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>45643.36903935186</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44631.45570601852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45341.56746527777</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>45362.83111111111</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>44966</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>45177.39659722222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>45377.48920138889</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45642.35851851852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45555.43620370371</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45453.43618055555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45471.39863425926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45217</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45217</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45686.67221064815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45370.50613425926</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45628.72</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44557.49318287037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45194.35973379629</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>45035</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>45237</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44872</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44698</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45071</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45217.44344907408</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>44487</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44949.61746527778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44957</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45715.40586805555</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45733</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45688.65921296296</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45607</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45141</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45093.91768518519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>45443.38305555555</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>45685.54848379629</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45546.49244212963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>44603.3712037037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45665.61969907407</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>45453</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45723.49292824074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44823.72759259259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>45630</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>44610</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>44530.68075231482</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>45483.7616087963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>45255.57924768519</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>45255</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>45117.89976851852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>45537.48940972222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44804.7465625</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45342</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45342</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45011</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>45071</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45422.41104166667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>44679.61620370371</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45685.55055555556</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45105</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33991,7 +33991,7 @@
         <v>45314.32972222222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>45385</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45643.49901620371</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45365.68638888889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45255.59284722222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>44280</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45217.57601851852</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>44902</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34457,7 +34457,7 @@
         <v>45762.4968287037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>44284.3875462963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>44957.61608796296</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>45265.50185185186</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>45666.594375</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>45453</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34799,7 +34799,7 @@
         <v>45453</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34856,7 +34856,7 @@
         <v>45035</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>45777.39721064815</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45782.75386574074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45785</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>45630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>45518</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45356</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45702.47258101852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45721.84422453704</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>45474</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45719.42331018519</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>45791</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44827.39942129629</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>45708.44246527777</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>45737.90570601852</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>45796.48542824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -575,7 +575,7 @@
         <v>45844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45844</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45844</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45834.33671296296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45844</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45082</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>44813.65914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44285.52417824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44722</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44788.85543981481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45117.91172453704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44902</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>45799.29619212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>45177</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45909.62664351852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45925.69354166667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45033.43498842593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>45867.61590277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45364</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44910</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>45649.36887731482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>44497.61828703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44431.49028935185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>44586.45890046296</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44438.39974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44459.56425925926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44271</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44437.29136574074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44421</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44320</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44246</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44579</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44523.68085648148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44472.47611111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44557.46989583333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44693.35873842592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44461.64192129629</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44845.31287037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44869</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44830.60042824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>44603.3659837963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44523.51407407408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44827.40586805555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44522.61667824074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44285.51721064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44687</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44650</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44694</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44813.63295138889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44746.57324074074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44420.60756944444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44572</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44813.64327546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>44813.66496527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44529.45037037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44246</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44249</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44335</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44369.43969907407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44357</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44263.35788194444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44764</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44309</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44425.76280092593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44461.65069444444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44376</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44762.58835648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44478</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44510.52255787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44390</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44575.37262731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44468</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44595.65876157407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44354</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44516</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44505.72509259259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44459.55395833333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44459.47292824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44487</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44252</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44806.48979166667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44731.45185185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44610</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44557.55960648148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44434</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44437.28954861111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44843</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44609</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44700.57378472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44469.84310185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44321</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44383</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44662</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44830.47840277778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44830.4819212963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44448.61173611111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44802.48579861111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44463</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44831.56995370371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44823.62825231482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44553</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44665.48672453704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>44614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44788.83469907408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44247</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44246</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44805.71230324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44355.65476851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44434</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>44623.393125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>44349.71498842593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44384.66334490741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44788.82988425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44834</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44721.57989583333</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44610</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44469.78644675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44573.49446759259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44573</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>45749.39572916667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>45453</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>45453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45632.64607638889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45447.91608796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45369.58465277778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45607.54608796296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44965</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45078</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44881.67839120371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>44900.48835648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45063.80594907407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>45196.85282407407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44895.66276620371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44994.6522337963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44424</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45217</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>45259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>45709.52055555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45035</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45037.59636574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45666.74427083333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45268.41516203704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45015</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44740.6428125</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44790</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>45019</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45643.50313657407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45573.97304398148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45652.49542824074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45231.09202546296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45231.09993055555</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45097</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45353.85016203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45506.58966435185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45728.48403935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44904.56056712963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44904.57929398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45688</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45605.56743055556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45605.57515046297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45211</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44594.57376157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44585.56990740741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45646</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>45733</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45733</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>45799.51834490741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>45884.65219907407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45555.433125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45356.69465277778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45209.40101851852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44662</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45714</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45631.29098379629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45362.83706018519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44904.58114583333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45471.3683912037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45553</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45722</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45708.44108796296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>45055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>45884.76268518518</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44424</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45587.6075</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45733</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45805.55434027778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>45884.65519675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44921.5437037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45568.50387731481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45539.27186342593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45548.41568287037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45683.73450231482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44585.40355324074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44903.36738425926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>45685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44832</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44481.81486111111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>45898.61960648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>45819.29016203704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>45635.71762731481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>45902</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45609.45424768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>45905.60903935185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>45110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>45905.60511574074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>45905</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>45905.6021412037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>45062</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44585.57111111111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44312.8218287037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45905</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45905.3710300926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45471.39585648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>45908.53063657408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45665.61358796297</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44826</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>45909.59811342593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>45537.49109953704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>45909.59134259259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>45909.59454861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>45908.5246412037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44742.46596064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45911.626875</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>45911.62393518518</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45911.62892361111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>45911.61909722222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44602</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>45243.47027777778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>45912.62307870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>45093.48739583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>45915.33224537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>45915.33744212963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>45912.84423611111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45082.54413194444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44580</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45912.84896990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45036</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45915.32856481482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45709.33300925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44801</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>45463</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45730.43767361111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45240.62390046296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45483.77171296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>45917.3375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>44749.86331018519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45918.63648148148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44916.88560185185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45468</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45919.31988425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45919.32181712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45919.58362268518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>45768.72400462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>45015.65375</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>45919.59320601852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45404.3621875</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44867.57969907407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44663.88828703704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45833.42586805556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45833.42826388889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45665.6306712963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>45833.43040509259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>45833.42054398148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>45656.54815972222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>45273.96774305555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>45833.38796296297</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>45832.34307870371</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>45666.65141203703</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45033.43649305555</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>45037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44743</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>45575.67569444444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45834.36524305555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>45834.58601851852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>45107</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>45834.34890046297</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45524.65349537037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45524</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45930.56465277778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44529.54512731481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45834.56790509259</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45834.34193287037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45835.32391203703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44832</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44783</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44935.94474537037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>45162.48063657407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45838.47916666666</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45838.48385416667</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44511</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45707.41185185185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44757</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45826.96917824074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44951.85590277778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45369.44048611111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45936.98362268518</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45937.31203703704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>45937.32253472223</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>45937.34452546296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44235</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45939.40376157407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45937.34450231482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45844</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45939.67415509259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45175.55418981481</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45845.40922453703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>45642.45993055555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45845.38695601852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45844</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>45105</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45844</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45844</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>45390.31269675926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>45100</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>45141</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44644.29711805555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>45844</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45844</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45845.39140046296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45749</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45436</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45695.56311342592</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45632.44180555556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45844</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45534.48851851852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45534.49101851852</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45950.395</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44845</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45744.60167824074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45769</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45677.8484375</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44711.62016203703</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44524.65744212963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44524.66100694444</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45867.6165625</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45715</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44477</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44776</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45282.61424768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44790</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45589.65177083333</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45589.65980324074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45686.33894675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44904.57733796296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45011.82695601852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45964.598125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45414.36306712963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45964.90686342592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45506.58487268518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45091.50614583334</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45967.33494212963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45688</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45742.69731481482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44902.62528935185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>45434.52386574074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45648.67697916667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>45973.32554398148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45971</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44838</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>45589.6418287037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>45975.67711805556</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45197.57471064815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45610</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45978.66430555555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>45737.41474537037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>46018.80475694445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45012</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45982.58918981482</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44658.5822800926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>44788</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>46020.64361111111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45369.44337962963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45436.43732638889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>46020.64207175926</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45986.41480324074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45733</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>46029.45943287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45986.42945601852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>46029.61142361111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45988.64585648148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45685.55271990741</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45237.79225694444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45360</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45148.56811342593</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44620</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>46030.48</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45742.7065162037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>46034.49106481481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44557</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45404.5447337963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45154.89658564814</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44911.6057175926</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>45208.30586805556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45520</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45436</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45706.79318287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>46037.64255787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45630</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45995.33380787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45996</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45588.65604166667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44610</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45443.29864583333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>45036</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>45503</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>45999.7060300926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45448</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>45427.64453703703</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>45427.64561342593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26503,7 +26503,7 @@
         <v>45714.45700231481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>45588.7440625</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44997</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>45259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>45119.4128587963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45208.47866898148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45377</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>46002.7006712963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>46007.71778935185</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>45239.34430555555</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>45321.87001157407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>45646.44403935185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44994.64373842593</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>45371.46622685185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>45231.74186342592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44965</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45264</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45364.38001157407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45197.56679398148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45197.57119212963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45096</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>45540.5496875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45162.47829861111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44895.65883101852</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45446.41148148148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>44271.64799768518</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>44910</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45961</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44951.85414351852</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44873.38465277778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44945.01668981482</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>45063</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44557.46721064814</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45436.43516203704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>45635.71258101852</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45079.60946759259</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45002</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45097</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44997</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45301.94692129629</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45078.39329861111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>44921.55061342593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45110.63390046296</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45078.38459490741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44802</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45733</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45390.31023148148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44505</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>45744.60379629629</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>45524</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>45147.68502314815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44455</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45216.62342592593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44522.61341435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45195.69958333333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>45195.71341435185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45375.84645833333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45572.47167824074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>45154</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>45709.53076388889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>45390.31549768519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>45588.65626157408</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>45588.74049768518</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>45117.55719907407</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45573.97584490741</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45016</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>45643.36903935186</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44631.45570601852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45341.56746527777</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>45362.83111111111</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>44966</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>45177.39659722222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>45377.48920138889</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45642.35851851852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45555.43620370371</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45453.43618055555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45471.39863425926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45217</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45217</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45686.67221064815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45370.50613425926</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45628.72</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44557.49318287037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45194.35973379629</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>45035</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>45237</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44872</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44698</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45071</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45217.44344907408</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>44487</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44949.61746527778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44957</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45715.40586805555</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45733</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45688.65921296296</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45607</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45141</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45093.91768518519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>45443.38305555555</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>45685.54848379629</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45546.49244212963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>44603.3712037037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45665.61969907407</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>45453</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45723.49292824074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44823.72759259259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>45630</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>44610</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>44530.68075231482</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>45483.7616087963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>45255.57924768519</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>45255</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>45117.89976851852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>45537.48940972222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44804.7465625</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45342</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45342</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45011</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>45071</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45422.41104166667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>44679.61620370371</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45685.55055555556</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45105</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33991,7 +33991,7 @@
         <v>45314.32972222222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>45385</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45643.49901620371</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45365.68638888889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45255.59284722222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>44280</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45217.57601851852</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>44902</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34457,7 +34457,7 @@
         <v>45762.4968287037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>44284.3875462963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>44957.61608796296</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>45265.50185185186</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>45666.594375</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>45453</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34799,7 +34799,7 @@
         <v>45453</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34856,7 +34856,7 @@
         <v>45035</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>45777.39721064815</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45782.75386574074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45785</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>45630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>45518</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45356</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45702.47258101852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45721.84422453704</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>45474</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45719.42331018519</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>45791</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44827.39942129629</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>45708.44246527777</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>45737.90570601852</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>45796.48542824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>

--- a/Översikt OSBY.xlsx
+++ b/Översikt OSBY.xlsx
@@ -575,7 +575,7 @@
         <v>45844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45844</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45844</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45834.33671296296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45844</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45082</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>44813.65914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44285.52417824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44722</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44788.85543981481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45117.91172453704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>45909.62664351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>45033.43498842593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>45867.61590277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>45925.69354166667</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44788</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>46073.46560185185</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>46073.4647337963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44910</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45649.36887731482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45799.29619212963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44497.61828703704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44431.49028935185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44586.45890046296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44438.39974537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44437.29136574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44459.56425925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44271</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44553</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44421</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44320</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44523.68085648148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44557.46989583333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44461.64192129629</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44472.47611111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44693.35873842592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>44845.31287037037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44869</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44830.60042824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44603.3659837963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44285.51721064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44523.51407407408</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44827.40586805555</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44522.61667824074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44687</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44650</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44813.63295138889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44694</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44746.57324074074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>44481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44420.60756944444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44335</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>44572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>44813.64327546296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44813.66496527778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44529.45037037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44249</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44357</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44369.43969907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44263.35788194444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44764</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44309</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44425.76280092593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44461.65069444444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44376</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44762.58835648148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44478</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44510.52255787037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44390</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44575.37262731481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44462</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44595.65876157407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44516</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44487</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44505.72509259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44459.55395833333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44459.47292824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44252</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44806.48979166667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44731.45185185185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44610</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44557.55960648148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44434</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44437.28954861111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>44843</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>44609</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44700.57378472222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44469.84310185185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44321</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44383</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44830.47840277778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44830.4819212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44448.61173611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44802.48579861111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44463</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44831.56995370371</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>44823.62825231482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44553</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44665.48672453704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44614</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44788.83469907408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44805.71230324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44355.65476851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44434</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44623.393125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44349.71498842593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44384.66334490741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44788.82988425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44834</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44721.57989583333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44610</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44469.78644675926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44573.49446759259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44573</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>45453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45453</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45749.39572916667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>45632.64607638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>45369.58465277778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45447.91608796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>45607.54608796296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44965</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>44881.67839120371</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44900.48835648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>45078</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>45063.80594907407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>45196.85282407407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44895.66276620371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44424</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45217</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>44994.6522337963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>45259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>45709.52055555556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45035</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45037.59636574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45268.41516203704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45666.74427083333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45238</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45015</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44740.6428125</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44790</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45573.97304398148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45643.50313657407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45231.09202546296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45231.09993055555</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45353.85016203704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45688</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45728.48403935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>45605.56743055556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45605.57515046297</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44904.56056712963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44904.57929398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45506.58966435185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45211</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44594.57376157407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44585.56990740741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>45646</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>45733</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45733</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>45555.433125</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44904.58114583333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>45652.49542824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>45209.40101851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>45631.29098379629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44662</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>45714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>45362.83706018519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>45733</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45722</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44424</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45587.6075</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44921.5437037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45539.27186342593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45568.50387731481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44585.40355324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45548.41568287037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45683.73450231482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44903.36738425926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45884.65219907407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45685</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45819.29016203704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>44620</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>45635.71762731481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44832</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45884.76268518518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45884.65519675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44481.81486111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45609.45424768519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45110</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44585.57111111111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44312.8218287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>45471.39585648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>44826</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>45537.49109953704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44742.46596064815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44602</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>45243.47027777778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>45833.42586805556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>45833.42826388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>45093.48739583333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>45833.43040509259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>45833.42054398148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>45082.54413194444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44580</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>45833.38796296297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45036</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45832.34307870371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45898.61960648148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>45709.33300925926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44801</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45834.36524305555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45834.58601851852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45730.43767361111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45240.62390046296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45834.34890046297</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45483.77171296296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44749.86331018519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45834.56790509259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45834.34193287037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45902</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45835.32391203703</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44916.88560185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>45468</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>45905.60903935185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45768.72400462963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45015.65375</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>45905.60511574074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45905</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>45404.3621875</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45905.6021412037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45838.47916666666</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>45838.48385416667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44867.57969907407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44663.88828703704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45905.3710300926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>45665.6306712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45908.53063657408</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45656.54815972222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45273.96774305555</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45665.61358796297</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45826.96917824074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45909.59811342593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45909.59134259259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>45909.59454861111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45908.5246412037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45911.626875</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45666.65141203703</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45844</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45845.40922453703</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45911.62393518518</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>45911.62892361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45845.38695601852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45844</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45033.43649305555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>45037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>45844</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45844</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45911.61909722222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44743</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45575.67569444444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45912.62307870371</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45915.33224537037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45915.33744212963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>45912.84423611111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>45845.39140046296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>45107</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45912.84896990741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45915.32856481482</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45524.65349537037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45524</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44529.54512731481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45844</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45917.3375</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44832</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>44783</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>45918.63648148148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>44935.94474537037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>45919.31988425926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45919.32181712963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>45162.48063657407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>45919.58362268518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44511</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>45919.59320601852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45923</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>45744.60167824074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>45707.41185185185</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44757</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>45323</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>44951.85590277778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45369.44048611111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>45867.6165625</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>45175.55418981481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45642.45993055555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>45453</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>45105</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45390.31269675926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45100</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45141</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>45930.56465277778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>44644.29711805555</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>45342</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>45436</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>45695.56311342592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45632.44180555556</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>45534.48851851852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20549,7 +20549,7 @@
         <v>45534.49101851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>45141</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44845</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45936.98362268518</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45937.31203703704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>45769</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45677.8484375</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>45937.32253472223</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45937.34452546296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>45939.40376157407</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>45937.34450231482</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45939.67415509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>44711.62016203703</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44524.65744212963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44524.66100694444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45715</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>45749</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>45309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44477</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>44776</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>45282.61424768518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>44790</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>45589.65177083333</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>45589.65980324074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>45950.395</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>45686.33894675926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44904.57733796296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>45011.82695601852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45414.36306712963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>45506.58487268518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>45091.50614583334</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>45688</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>45742.69731481482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44902.62528935185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>45434.52386574074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45648.67697916667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45119</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>44838</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>45589.6418287037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>45964.598125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>45197.57471064815</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45610</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45964.90686342592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45737.41474537037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>45967.33494212963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44658.5822800926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>45973.32554398148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45971</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>45369.44337962963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>45436.43732638889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>45975.67711805556</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>45733</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>45978.66430555555</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>45685.55271990741</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>45237.79225694444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45360</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>45148.56811342593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44620</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>45982.58918981482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45742.7065162037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44557</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>45404.5447337963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45154.89658564814</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44911.6057175926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>45986.41480324074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>45986.42945601852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>45208.30586805556</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>45988.64585648148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>45436</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>45706.79318287037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>46034.49106481481</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>45733</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>45630</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>45520</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>45588.65604166667</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>46037.64255787037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>45443.29864583333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25107,7 +25107,7 @@
         <v>45036</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>45995.33380787037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25221,7 +25221,7 @@
         <v>45996</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>45503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45448</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45427.64453703703</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45427.64561342593</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45714.45700231481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45588.7440625</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45999.7060300926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>44997</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25739,7 +25739,7 @@
         <v>45259</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45119.4128587963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44433</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>45208.47866898148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45377</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>45239.34430555555</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>46002.7006712963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>45321.87001157407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>46007.71778935185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45646.44403935185</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44994.64373842593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45371.46622685185</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45231.74186342592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44965</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45264</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45364.38001157407</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45197.56679398148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45197.57119212963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45096</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>45540.5496875</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>45162.47829861111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44895.65883101852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>45446.41148148148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44271.64799768518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44910</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44951.85414351852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44873.38465277778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44945.01668981482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44557.46721064814</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>45436.43516203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45635.71258101852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>45079.60946759259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>45002</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>45002</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>46020.64207175926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>45097</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>46018.80475694445</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44997</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>45301.94692129629</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>46020.64361111111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45078.39329861111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44921.55061342593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>45110.63390046296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>45078.38459490741</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44802</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>45733</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>45905</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>45390.31023148148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44505</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>45744.60379629629</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>45524</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>46029.61142361111</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>45147.68502314815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28904,7 +28904,7 @@
         <v>46029.45943287037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         <v>44455</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29018,7 +29018,7 @@
         <v>45216.62342592593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>44522.61341435185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45195.69958333333</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45195.71341435185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45375.84645833333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>46030.48</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45572.47167824074</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>46071</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45154</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45709.53076388889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>45961</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>45390.31549768519</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>45588.65626157408</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>45588.74049768518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>45117.55719907407</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>45573.97584490741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>45016</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30007,7 +30007,7 @@
         <v>45643.36903935186</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44631.45570601852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>45341.56746527777</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>45362.83111111111</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45177.39659722222</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45377.48920138889</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45642.35851851852</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45555.43620370371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45453.43618055555</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45471.39863425926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>45217</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45217</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>45686.67221064815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45370.50613425926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45628.72</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44557.49318287037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45194.35973379629</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45035</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45237</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>45126</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>44872</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>44698</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31358,7 +31358,7 @@
         <v>45071</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>45217.44344907408</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44487</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>44949.61746527778</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>44957</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31643,7 +31643,7 @@
         <v>45715.40586805555</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31700,7 +31700,7 @@
         <v>45733</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>45688.65921296296</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45607</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45141</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31938,7 +31938,7 @@
         <v>45093.91768518519</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31995,7 +31995,7 @@
         <v>45443.38305555555</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45685.54848379629</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45546.49244212963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44603.3712037037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>45665.61969907407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>45453</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>45723.49292824074</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44823.72759259259</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>45630</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45015</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44530.68075231482</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45483.7616087963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45255.57924768519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45255</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45117.89976851852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45537.48940972222</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44804.7465625</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45342</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45342</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45011</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45071</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45422.41104166667</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44679.61620370371</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45685.55055555556</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33455,7 +33455,7 @@
         <v>45105</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33512,7 +33512,7 @@
         <v>45314.32972222222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>45385</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>45643.49901620371</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>45365.68638888889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33740,7 +33740,7 @@
         <v>45255.59284722222</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44280</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45217.57601851852</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45762.4968287037</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44284.3875462963</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44957.61608796296</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>45265.50185185186</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>45666.594375</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34263,7 +34263,7 @@
         <v>45453</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34320,7 +34320,7 @@
         <v>45453</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34377,7 +34377,7 @@
         <v>45035</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>45777.39721064815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>45782.75386574074</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>45785</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>45630</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>45518</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>45356</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>45702.47258101852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>45721.84422453704</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>45474</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45719.42331018519</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>45791</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>44827.39942129629</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35123,7 +35123,7 @@
         <v>45708.44246527777</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45737.90570601852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45796.48542824074</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45799.51834490741</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45356.69465277778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>45803</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45471.3683912037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>45553</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45708.44108796296</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35646,7 +35646,7 @@
         <v>45055</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>45805.55434027778</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
